--- a/MedicalLink/Templates/BC_BenhNhanSuDungDichVuTheoNhom_XuatAn.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanSuDungDichVuTheoNhom_XuatAn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="CNNK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$Y$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$Y$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -44,9 +44,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -189,6 +186,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DUYET_NGAYDUYET_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -228,13 +231,6 @@
       <sz val="20"/>
       <color indexed="8"/>
       <name val="Times Ne"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -377,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,14 +390,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,56 +412,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +456,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T1" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -780,9 +760,9 @@
     <col min="11" max="11" width="41.140625" style="1" customWidth="1"/>
     <col min="12" max="14" width="15.5703125" style="1" customWidth="1"/>
     <col min="15" max="16" width="18.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="14" customWidth="1"/>
     <col min="18" max="19" width="28.85546875" style="1" customWidth="1"/>
-    <col min="20" max="22" width="20.42578125" style="16" customWidth="1"/>
+    <col min="20" max="22" width="20.42578125" style="14" customWidth="1"/>
     <col min="23" max="23" width="29.5703125" style="1" customWidth="1"/>
     <col min="24" max="24" width="15.5703125" style="1" customWidth="1"/>
     <col min="25" max="25" width="29.5703125" style="1" customWidth="1"/>
@@ -790,8 +770,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
+      <c r="A1" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
@@ -804,334 +784,320 @@
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="25.5">
-      <c r="D2" s="31" t="s">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75">
+      <c r="E3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="6" spans="1:25" s="13" customFormat="1" ht="28.5">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5">
+        <v>12</v>
+      </c>
+      <c r="M7" s="5">
+        <v>13</v>
+      </c>
+      <c r="N7" s="5">
+        <v>14</v>
+      </c>
+      <c r="O7" s="5">
+        <v>15</v>
+      </c>
+      <c r="P7" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>17</v>
+      </c>
+      <c r="R7" s="5">
+        <v>18</v>
+      </c>
+      <c r="S7" s="5">
+        <v>19</v>
+      </c>
+      <c r="T7" s="5">
+        <v>20</v>
+      </c>
+      <c r="U7" s="5">
+        <v>21</v>
+      </c>
+      <c r="V7" s="5">
+        <v>22</v>
+      </c>
+      <c r="W7" s="5">
+        <v>23</v>
+      </c>
+      <c r="X7" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="20" customFormat="1" ht="45">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="8"/>
+      <c r="C8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" ht="18.75">
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75">
-      <c r="D4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="7" spans="1:25" s="15" customFormat="1" ht="28.5">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5">
-        <v>11</v>
-      </c>
-      <c r="L8" s="5">
-        <v>12</v>
-      </c>
-      <c r="M8" s="5">
-        <v>13</v>
-      </c>
-      <c r="N8" s="5">
-        <v>14</v>
-      </c>
-      <c r="O8" s="5">
-        <v>15</v>
-      </c>
-      <c r="P8" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>17</v>
-      </c>
-      <c r="R8" s="5">
-        <v>18</v>
-      </c>
-      <c r="S8" s="5">
-        <v>19</v>
-      </c>
-      <c r="T8" s="5">
-        <v>20</v>
-      </c>
-      <c r="U8" s="5">
-        <v>21</v>
-      </c>
-      <c r="V8" s="5">
-        <v>22</v>
-      </c>
-      <c r="W8" s="5">
-        <v>23</v>
-      </c>
-      <c r="X8" s="5">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="23" customFormat="1" ht="45">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="X9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y9" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A10" s="35" t="s">
+    <row r="9" spans="1:25" ht="24.75" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2">
-        <f>SUM(N9:N9)</f>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <f>SUM(N8:N8)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="2">
-        <f t="shared" ref="O10:P10" si="0">SUM(O9:O9)</f>
+      <c r="O9" s="2">
+        <f t="shared" ref="O9:P9" si="0">SUM(O8:O8)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
     </row>
-    <row r="12" spans="1:25">
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
+    <row r="11" spans="1:25">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A10:C10"/>
+  <mergeCells count="4">
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
